--- a/biology/Zoologie/Allomycterus/Allomycterus.xlsx
+++ b/biology/Zoologie/Allomycterus/Allomycterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allomycterus est un genre de poissons Tetraodontiformes de la famille des Diodontidae (espèces communément appelées « poissons porc-épic »).
 Comme l'ensemble des membres de cette famille, ces poissons possèdent la capacité de gonfler leur corps, qui est couvert d'épines, et leurs dents sont fusionnées en une structure ressemblant à un bec.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Allomycterus a été créé par Allan Riverstone McCulloch en 1921[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Allomycterus a été créé par Allan Riverstone McCulloch en 1921.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (18 mars 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (18 mars 2021) :
 Allomycterus pilatus Whitley, 1931
 Allomycterus whitleyi Phillipps, 1932
-Pour le WoRMS seule l'espèce Allomycterus pilatus Whitley, 1931 appartient à ce genre[1].
+Pour le WoRMS seule l'espèce Allomycterus pilatus Whitley, 1931 appartient à ce genre.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Allan R. McCulloch, « Studies in Australian fishes. No. 7 », Records of the Australian Museum, Sydney, Australian Museum et inconnu, vol. 13, no 4,‎ 12 avril 1921, p. 123-142 (ISSN 0067-1975 et 2201-4349, OCLC 1385608, DOI 10.3853/J.0067-1975.13.1921.863, lire en ligne)</t>
         </is>
